--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2422,7 +2422,7 @@
     <col min="26" max="26" width="70.796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4621" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1106,65 +1106,37 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>value:code}
-value:system}</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode</t>
-  </si>
-  <si>
-    <t>erythrocytesInBloodCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding.id</t>
   </si>
   <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.system</t>
-  </si>
-  <si>
     <t>Observation.code.coding.system</t>
   </si>
   <si>
     <t>http://loinc.org</t>
   </si>
   <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding.version</t>
   </si>
   <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>26453-1</t>
   </si>
   <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding.display</t>
   </si>
   <si>
-    <t>Observation.code.coding:erythrocytesInBloodCode.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Erythrocytes [#/volume] in Blood</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -2385,7 +2357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP119"/>
+  <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -10078,7 +10050,7 @@
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
@@ -10160,7 +10132,7 @@
         <v>104</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>344</v>
@@ -10438,7 +10410,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>82</v>
@@ -10496,14 +10468,16 @@
         <v>82</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>230</v>
@@ -10541,48 +10515,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10630,19 +10598,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10651,10 +10619,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10665,21 +10633,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10691,15 +10659,17 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10736,31 +10706,31 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10772,7 +10742,7 @@
         <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10783,21 +10753,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10806,27 +10776,29 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10856,31 +10828,31 @@
         <v>82</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10889,10 +10861,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10903,10 +10875,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10914,7 +10886,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -10929,26 +10901,24 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>82</v>
@@ -10990,7 +10960,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -11011,10 +10981,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -11025,10 +10995,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11036,7 +11006,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>92</v>
@@ -11051,24 +11021,26 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11110,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11131,10 +11103,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11145,10 +11117,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11156,7 +11128,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>92</v>
@@ -11171,26 +11143,26 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>82</v>
@@ -11232,7 +11204,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11253,10 +11225,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11267,10 +11239,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11293,19 +11265,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11354,7 +11326,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11375,10 +11347,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11389,10 +11361,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11400,13 +11372,13 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>82</v>
@@ -11415,19 +11387,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11437,7 +11409,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11476,7 +11448,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11497,10 +11469,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11511,10 +11483,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11537,19 +11509,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>287</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11598,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11610,22 +11582,22 @@
         <v>104</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11633,10 +11605,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11647,7 +11619,7 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11659,20 +11631,18 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O77" t="s" s="2">
         <v>378</v>
       </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11720,13 +11690,13 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>104</v>
@@ -11735,19 +11705,19 @@
         <v>170</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="AO77" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11755,21 +11725,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11781,18 +11751,20 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>82</v>
       </c>
@@ -11840,13 +11812,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
@@ -11855,19 +11827,19 @@
         <v>170</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11875,14 +11847,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11901,19 +11873,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11962,7 +11934,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11974,22 +11946,22 @@
         <v>104</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11997,14 +11969,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -12023,20 +11995,18 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O80" t="s" s="2">
         <v>406</v>
       </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -12084,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12099,19 +12069,19 @@
         <v>105</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12119,10 +12089,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12133,7 +12103,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -12145,18 +12115,20 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
       </c>
@@ -12204,22 +12176,22 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
@@ -12253,7 +12225,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12274,10 +12246,10 @@
         <v>422</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12314,16 +12286,14 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>419</v>
@@ -12332,41 +12302,43 @@
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>104</v>
+        <v>426</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12387,19 +12359,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12436,59 +12408,59 @@
         <v>82</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AN83" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12506,23 +12478,19 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
@@ -12570,7 +12538,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>428</v>
+        <v>218</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12579,7 +12547,7 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>82</v>
@@ -12588,38 +12556,38 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>438</v>
+        <v>113</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>82</v>
@@ -12631,15 +12599,17 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12676,31 +12646,31 @@
         <v>82</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12712,7 +12682,7 @@
         <v>82</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12723,44 +12693,46 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>141</v>
+        <v>441</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>221</v>
+        <v>442</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
       </c>
@@ -12796,31 +12768,31 @@
         <v>82</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
@@ -12829,10 +12801,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>106</v>
+        <v>447</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12843,10 +12815,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12854,22 +12826,22 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>449</v>
+        <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>450</v>
@@ -12878,15 +12850,17 @@
         <v>451</v>
       </c>
       <c r="N87" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O87" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="O87" t="s" s="2">
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
         <v>82</v>
       </c>
@@ -12906,13 +12880,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12930,7 +12904,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12951,10 +12925,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12965,10 +12939,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12976,41 +12950,39 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>259</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q88" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
         <v>82</v>
       </c>
@@ -13030,31 +13002,31 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>463</v>
+        <v>82</v>
       </c>
       <c r="Z88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13075,10 +13047,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13089,10 +13061,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13115,16 +13087,16 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>472</v>
@@ -13134,7 +13106,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>82</v>
@@ -13176,7 +13148,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13185,7 +13157,7 @@
         <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>104</v>
+        <v>475</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13197,10 +13169,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13211,10 +13183,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13237,10 +13209,10 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>479</v>
@@ -13256,31 +13228,31 @@
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="S90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="Z90" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13298,7 +13270,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13307,7 +13279,7 @@
         <v>92</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>105</v>
@@ -13319,7 +13291,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>485</v>
@@ -13336,7 +13308,7 @@
         <v>486</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13344,25 +13316,25 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>488</v>
@@ -13396,13 +13368,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>188</v>
+        <v>491</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13420,7 +13392,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13429,7 +13401,7 @@
         <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>104</v>
+        <v>494</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13441,10 +13413,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>474</v>
+        <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13455,21 +13427,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13484,16 +13456,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13518,13 +13490,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13542,16 +13514,16 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>503</v>
+        <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>105</v>
@@ -13560,31 +13532,31 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>106</v>
+        <v>505</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13603,19 +13575,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13640,13 +13612,13 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13664,7 +13636,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13682,7 +13654,7 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>514</v>
@@ -13694,15 +13666,15 @@
         <v>82</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13713,7 +13685,7 @@
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>82</v>
@@ -13725,20 +13697,18 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>522</v>
-      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13762,13 +13732,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13786,13 +13756,13 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>104</v>
@@ -13804,7 +13774,7 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>82</v>
+        <v>522</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>523</v>
@@ -13816,15 +13786,15 @@
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>82</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13850,15 +13820,17 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13885,10 +13857,10 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13906,7 +13878,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13924,19 +13896,19 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>531</v>
+        <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" hidden="true">
@@ -13967,20 +13939,18 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>198</v>
+        <v>536</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O96" t="s" s="2">
         <v>539</v>
       </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -14004,13 +13974,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -14040,25 +14010,25 @@
         <v>104</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>82</v>
+        <v>540</v>
       </c>
       <c r="AM96" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN96" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="97" hidden="true">
@@ -14197,7 +14167,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -14220,7 +14190,9 @@
       <c r="N98" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="O98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
       </c>
@@ -14274,31 +14246,31 @@
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>170</v>
+        <v>559</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>558</v>
+        <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>561</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" hidden="true">
@@ -14317,7 +14289,7 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
@@ -14329,20 +14301,16 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>563</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>564</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>82</v>
       </c>
@@ -14390,19 +14358,19 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>562</v>
+        <v>218</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>568</v>
+        <v>82</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>82</v>
@@ -14411,10 +14379,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>570</v>
+        <v>113</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14425,21 +14393,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14451,15 +14419,17 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14496,31 +14466,31 @@
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>82</v>
@@ -14532,7 +14502,7 @@
         <v>82</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14543,14 +14513,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>139</v>
+        <v>565</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14563,24 +14533,26 @@
         <v>82</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>141</v>
+        <v>566</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>221</v>
+        <v>567</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
       </c>
@@ -14616,19 +14588,19 @@
         <v>82</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>222</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14663,46 +14635,44 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>140</v>
+        <v>570</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>82</v>
       </c>
@@ -14750,31 +14720,31 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14811,16 +14781,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="N103" t="s" s="2">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14879,10 +14849,10 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14891,10 +14861,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14905,10 +14875,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14931,18 +14901,20 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>579</v>
+        <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14966,13 +14938,13 @@
         <v>82</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>588</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14990,7 +14962,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14999,22 +14971,22 @@
         <v>92</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>584</v>
+        <v>105</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>82</v>
+        <v>589</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>590</v>
+        <v>506</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15039,7 +15011,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -15088,7 +15060,7 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="Y105" t="s" s="2">
         <v>596</v>
@@ -15118,7 +15090,7 @@
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>104</v>
@@ -15130,13 +15102,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15147,10 +15119,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15161,7 +15133,7 @@
         <v>80</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>82</v>
@@ -15173,19 +15145,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>198</v>
+        <v>599</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15210,13 +15182,13 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>605</v>
+        <v>82</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>606</v>
+        <v>82</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>82</v>
@@ -15234,31 +15206,31 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>105</v>
+        <v>604</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>598</v>
+        <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15295,20 +15267,18 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>610</v>
-      </c>
       <c r="N107" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>82</v>
       </c>
@@ -15368,7 +15338,7 @@
         <v>104</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>613</v>
+        <v>105</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15377,10 +15347,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15391,10 +15361,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15405,7 +15375,7 @@
         <v>80</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>82</v>
@@ -15414,19 +15384,19 @@
         <v>82</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>215</v>
+        <v>612</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>259</v>
+        <v>615</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15476,19 +15446,19 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15497,10 +15467,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15511,10 +15481,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15537,16 +15507,16 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15596,7 +15566,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15617,10 +15587,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15631,10 +15601,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15657,18 +15627,20 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="L110" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>82</v>
       </c>
@@ -15716,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15728,7 +15700,7 @@
         <v>104</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>82</v>
@@ -15737,10 +15709,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15751,10 +15723,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15765,7 +15737,7 @@
         <v>80</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>82</v>
@@ -15774,23 +15746,19 @@
         <v>82</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>563</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>634</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>637</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>82</v>
       </c>
@@ -15838,19 +15806,19 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>633</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15859,10 +15827,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>638</v>
+        <v>82</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>639</v>
+        <v>113</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15873,21 +15841,21 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>82</v>
@@ -15899,15 +15867,17 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15944,31 +15914,31 @@
         <v>82</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC112" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>82</v>
@@ -15980,7 +15950,7 @@
         <v>82</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15991,14 +15961,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>139</v>
+        <v>565</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -16011,24 +15981,26 @@
         <v>82</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>141</v>
+        <v>566</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>221</v>
+        <v>567</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="O113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
       </c>
@@ -16064,19 +16036,19 @@
         <v>82</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC113" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>222</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16111,45 +16083,45 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>574</v>
+        <v>82</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J114" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>143</v>
+        <v>637</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>152</v>
+        <v>340</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16174,13 +16146,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16198,34 +16170,34 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>82</v>
+        <v>638</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>82</v>
+        <v>348</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16233,10 +16205,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16244,7 +16216,7 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>92</v>
@@ -16259,19 +16231,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>645</v>
+        <v>422</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>340</v>
+        <v>424</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16296,13 +16268,13 @@
         <v>82</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>82</v>
@@ -16320,10 +16292,10 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>92</v>
@@ -16338,27 +16310,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>346</v>
+        <v>428</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16378,22 +16350,22 @@
         <v>82</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>431</v>
+        <v>645</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16418,13 +16390,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16442,7 +16414,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16451,7 +16423,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>104</v>
+        <v>494</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16460,38 +16432,38 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>651</v>
+        <v>82</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>437</v>
+        <v>106</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>82</v>
+        <v>497</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>82</v>
@@ -16506,16 +16478,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>653</v>
+        <v>498</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>654</v>
+        <v>499</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>655</v>
+        <v>500</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16540,13 +16512,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16564,16 +16536,16 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>503</v>
+        <v>104</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>105</v>
@@ -16582,31 +16554,31 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>106</v>
+        <v>505</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16625,19 +16597,19 @@
         <v>82</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>508</v>
+        <v>650</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>510</v>
+        <v>558</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16662,13 +16634,13 @@
         <v>82</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>511</v>
+        <v>82</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>82</v>
@@ -16686,7 +16658,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16695,154 +16667,32 @@
         <v>81</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>513</v>
+        <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP119" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP119">
+  <autoFilter ref="A1:AP118">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16852,7 +16702,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI118">
+  <conditionalFormatting sqref="A2:AI117">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2394,7 +2391,7 @@
     <col min="26" max="26" width="70.796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -4184,10 +4181,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4211,13 +4208,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4225,13 +4222,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4335,13 +4332,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4349,10 +4346,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4375,13 +4372,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4432,7 +4429,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4467,10 +4464,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4499,7 +4496,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4552,7 +4549,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4587,10 +4584,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4613,19 +4610,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4674,7 +4671,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4695,10 +4692,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4735,13 +4732,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4792,7 +4789,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4827,10 +4824,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4859,7 +4856,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4912,7 +4909,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4947,10 +4944,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4976,65 +4973,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5055,10 +5052,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5069,10 +5066,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5095,16 +5092,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5154,7 +5151,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5175,10 +5172,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5189,10 +5186,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5218,65 +5215,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5297,10 +5294,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5311,10 +5308,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5337,19 +5334,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5398,7 +5395,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5419,10 +5416,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5433,10 +5430,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5459,19 +5456,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5520,7 +5517,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5541,10 +5538,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5555,10 +5552,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5581,19 +5578,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5642,7 +5639,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5663,10 +5660,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5677,13 +5674,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5787,13 +5784,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5801,10 +5798,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5827,13 +5824,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5884,7 +5881,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5919,10 +5916,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5951,7 +5948,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6004,7 +6001,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6039,10 +6036,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6065,19 +6062,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6126,7 +6123,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6147,10 +6144,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6161,10 +6158,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6187,13 +6184,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6244,7 +6241,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6279,10 +6276,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6311,7 +6308,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6364,7 +6361,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6399,10 +6396,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6428,23 +6425,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6486,7 +6483,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6507,10 +6504,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6521,10 +6518,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6547,16 +6544,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6606,7 +6603,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6627,10 +6624,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6641,10 +6638,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6670,23 +6667,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6728,7 +6725,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6749,10 +6746,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6763,10 +6760,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6789,19 +6786,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6850,7 +6847,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6871,10 +6868,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6885,10 +6882,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6911,19 +6908,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6972,7 +6969,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6993,10 +6990,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7007,10 +7004,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7033,19 +7030,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7094,7 +7091,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7115,10 +7112,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7129,13 +7126,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7239,13 +7236,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7253,10 +7250,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7279,13 +7276,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7336,7 +7333,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7371,10 +7368,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7403,7 +7400,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7456,7 +7453,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7491,10 +7488,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7517,19 +7514,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7578,7 +7575,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7599,10 +7596,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7613,10 +7610,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7639,13 +7636,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7696,7 +7693,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7731,10 +7728,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7763,7 +7760,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7816,7 +7813,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7851,10 +7848,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7880,23 +7877,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7938,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7959,10 +7956,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7973,10 +7970,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7999,16 +7996,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8058,7 +8055,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8079,10 +8076,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8093,10 +8090,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8122,23 +8119,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8180,7 +8177,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8201,10 +8198,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8215,10 +8212,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8241,19 +8238,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8302,7 +8299,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8323,10 +8320,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8337,10 +8334,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8363,19 +8360,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8424,7 +8421,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8445,10 +8442,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8459,10 +8456,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8485,19 +8482,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8546,7 +8543,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8567,10 +8564,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8581,13 +8578,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8691,13 +8688,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8705,10 +8702,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8731,13 +8728,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8788,7 +8785,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8823,10 +8820,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8855,7 +8852,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8908,7 +8905,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8943,10 +8940,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8969,19 +8966,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9030,7 +9027,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9051,10 +9048,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9065,10 +9062,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9091,13 +9088,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9148,7 +9145,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9183,10 +9180,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9215,7 +9212,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9268,7 +9265,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9303,10 +9300,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9332,23 +9329,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9390,7 +9387,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9411,10 +9408,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9425,10 +9422,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9451,16 +9448,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9510,7 +9507,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9531,10 +9528,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9545,10 +9542,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9574,23 +9571,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9632,7 +9629,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9653,10 +9650,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9667,10 +9664,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9693,19 +9690,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9754,7 +9751,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9775,10 +9772,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9789,10 +9786,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9815,19 +9812,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9876,7 +9873,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9897,10 +9894,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9911,10 +9908,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9937,19 +9934,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9998,7 +9995,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10019,10 +10016,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10033,14 +10030,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10062,16 +10059,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10096,14 +10093,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10120,7 +10117,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>92</v>
@@ -10135,30 +10132,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AP64" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10181,13 +10178,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10238,7 +10235,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10273,10 +10270,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10305,7 +10302,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10358,7 +10355,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10393,10 +10390,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10419,19 +10416,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10480,7 +10477,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10501,10 +10498,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10515,10 +10512,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10541,13 +10538,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10598,7 +10595,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10633,10 +10630,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10665,7 +10662,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10718,7 +10715,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10753,10 +10750,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10782,23 +10779,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10840,7 +10837,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10861,10 +10858,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10875,10 +10872,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10901,16 +10898,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10960,7 +10957,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10981,10 +10978,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10995,10 +10992,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11024,23 +11021,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11082,7 +11079,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11103,10 +11100,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11117,10 +11114,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11143,19 +11140,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11204,7 +11201,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11225,10 +11222,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11239,10 +11236,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11265,19 +11262,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11326,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11347,10 +11344,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11361,10 +11358,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11387,19 +11384,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11409,7 +11406,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11448,7 +11445,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11469,10 +11466,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11483,10 +11480,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11509,19 +11506,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11570,7 +11567,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11585,19 +11582,19 @@
         <v>170</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN76" t="s" s="2">
+      <c r="AO76" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11605,10 +11602,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11631,16 +11628,16 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11690,7 +11687,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11711,13 +11708,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11725,14 +11722,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11751,19 +11748,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11812,7 +11809,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11827,19 +11824,19 @@
         <v>170</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AN78" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11847,14 +11844,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11873,19 +11870,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11934,7 +11931,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11949,19 +11946,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM79" t="s" s="2">
+      <c r="AN79" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AO79" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11969,10 +11966,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11995,16 +11992,16 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12054,7 +12051,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12075,13 +12072,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12089,10 +12086,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12115,19 +12112,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12176,7 +12173,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12191,19 +12188,19 @@
         <v>170</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12211,10 +12208,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12237,19 +12234,19 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12286,7 +12283,7 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12296,7 +12293,7 @@
         <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12305,7 +12302,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12314,30 +12311,30 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C83" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12359,19 +12356,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12420,7 +12417,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12429,36 +12426,36 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AJ83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B84" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12481,13 +12478,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12538,7 +12535,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12573,10 +12570,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B85" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12605,7 +12602,7 @@
         <v>141</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>143</v>
@@ -12658,7 +12655,7 @@
         <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12693,10 +12690,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B86" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12719,19 +12716,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12780,7 +12777,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12801,10 +12798,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12815,10 +12812,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12844,22 +12841,22 @@
         <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O87" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="N87" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O87" t="s" s="2">
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q87" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>82</v>
@@ -12883,28 +12880,28 @@
         <v>188</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z87" t="s" s="2">
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12925,10 +12922,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12939,10 +12936,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12965,19 +12962,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O88" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13026,7 +13023,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13047,10 +13044,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13061,10 +13058,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13090,74 +13087,74 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="S89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF89" t="s" s="2">
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13169,10 +13166,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13183,10 +13180,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13212,16 +13209,16 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13249,28 +13246,28 @@
         <v>188</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="Z90" t="s" s="2">
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13291,10 +13288,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13305,10 +13302,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13334,16 +13331,16 @@
         <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13368,40 +13365,40 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13416,7 +13413,7 @@
         <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13427,14 +13424,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13456,16 +13453,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="N92" t="s" s="2">
+      <c r="O92" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13490,14 +13487,14 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
       </c>
@@ -13514,7 +13511,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13532,27 +13529,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>507</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13575,19 +13572,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13636,7 +13633,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13657,10 +13654,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13671,10 +13668,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13700,13 +13697,13 @@
         <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13732,14 +13729,14 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="Z94" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13756,7 +13753,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13774,27 +13771,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AO94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13820,16 +13817,16 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13854,14 +13851,14 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
       </c>
@@ -13878,7 +13875,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13899,10 +13896,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AN95" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13913,10 +13910,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13939,16 +13936,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13998,7 +13995,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14016,27 +14013,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AM96" t="s" s="2">
+      <c r="AN96" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AN96" t="s" s="2">
+      <c r="AO96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP96" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>543</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14059,16 +14056,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14118,7 +14115,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14136,27 +14133,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM97" t="s" s="2">
+      <c r="AN97" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AO97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP97" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14179,19 +14176,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="N98" t="s" s="2">
+      <c r="O98" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14240,7 +14237,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14252,19 +14249,19 @@
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM98" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AK98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM98" t="s" s="2">
+      <c r="AN98" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14275,10 +14272,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14301,13 +14298,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14358,7 +14355,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14393,10 +14390,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14425,7 +14422,7 @@
         <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>143</v>
@@ -14478,7 +14475,7 @@
         <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14513,14 +14510,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14542,10 +14539,10 @@
         <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>143</v>
@@ -14600,7 +14597,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14635,10 +14632,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14661,16 +14658,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14720,7 +14717,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14729,22 +14726,22 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AJ102" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14755,10 +14752,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14781,16 +14778,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="N103" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14840,7 +14837,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14849,22 +14846,22 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AJ103" t="s" s="2">
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM103" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="AK103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>576</v>
-      </c>
       <c r="AN103" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14875,10 +14872,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14904,16 +14901,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="N104" t="s" s="2">
+      <c r="O104" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14941,11 +14938,11 @@
         <v>119</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14962,7 +14959,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14980,13 +14977,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AM104" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="AN104" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14997,10 +14994,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15026,16 +15023,16 @@
         <v>198</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="N105" t="s" s="2">
+      <c r="O105" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15060,14 +15057,14 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
       </c>
@@ -15084,7 +15081,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15102,13 +15099,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM105" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="AM105" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="AN105" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15119,10 +15116,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15145,19 +15142,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15206,7 +15203,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15218,19 +15215,19 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AK106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15241,10 +15238,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15267,16 +15264,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N107" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15326,7 +15323,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15347,10 +15344,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15361,10 +15358,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15387,16 +15384,16 @@
         <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15446,7 +15443,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15467,10 +15464,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AN108" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15481,10 +15478,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15507,16 +15504,16 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15566,7 +15563,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15587,10 +15584,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15601,10 +15598,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15627,19 +15624,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15688,7 +15685,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15709,10 +15706,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AN110" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15723,10 +15720,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15749,13 +15746,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15806,7 +15803,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15841,10 +15838,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15873,7 +15870,7 @@
         <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>143</v>
@@ -15926,7 +15923,7 @@
         <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15961,14 +15958,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15990,10 +15987,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16048,7 +16045,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16083,10 +16080,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16112,16 +16109,16 @@
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="N114" t="s" s="2">
-        <v>637</v>
-      </c>
       <c r="O114" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16146,14 +16143,14 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y114" t="s" s="2">
+      <c r="Z114" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
       </c>
@@ -16170,7 +16167,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>92</v>
@@ -16188,16 +16185,16 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN114" t="s" s="2">
+      <c r="AO114" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16205,10 +16202,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16231,19 +16228,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M115" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>641</v>
-      </c>
       <c r="O115" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16292,7 +16289,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16310,27 +16307,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM115" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN115" t="s" s="2">
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP115" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16356,16 +16353,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="N116" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="O116" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16390,40 +16387,40 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Y116" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Y116" t="s" s="2">
+      <c r="Z116" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z116" t="s" s="2">
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI116" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16438,7 +16435,7 @@
         <v>106</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16449,14 +16446,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16478,16 +16475,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="N117" t="s" s="2">
+      <c r="O117" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16512,14 +16509,14 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y117" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z117" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="Z117" t="s" s="2">
-        <v>503</v>
-      </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
       </c>
@@ -16536,7 +16533,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16554,27 +16551,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM117" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AM117" t="s" s="2">
+      <c r="AN117" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AN117" t="s" s="2">
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>507</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16600,16 +16597,16 @@
         <v>83</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M118" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="N118" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O118" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16658,7 +16655,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16679,10 +16676,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -4181,10 +4184,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -4208,13 +4211,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4222,13 +4225,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4332,13 +4335,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4346,10 +4349,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4372,13 +4375,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4429,7 +4432,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4464,10 +4467,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4496,7 +4499,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4549,7 +4552,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4584,10 +4587,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4595,13 +4598,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4610,19 +4613,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4671,7 +4674,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4692,10 +4695,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4706,10 +4709,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4732,13 +4735,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4789,7 +4792,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4824,10 +4827,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4856,7 +4859,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4909,7 +4912,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4944,10 +4947,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4955,13 +4958,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4973,23 +4976,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -5031,7 +5034,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -5052,10 +5055,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -5066,10 +5069,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5092,16 +5095,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5151,7 +5154,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5172,10 +5175,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5186,10 +5189,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5197,13 +5200,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5215,23 +5218,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5273,7 +5276,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5294,10 +5297,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5308,10 +5311,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5334,19 +5337,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5395,7 +5398,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5416,10 +5419,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5430,10 +5433,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5456,19 +5459,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5517,7 +5520,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5538,10 +5541,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5578,19 +5581,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5639,7 +5642,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5660,10 +5663,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5674,13 +5677,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5784,13 +5787,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5798,10 +5801,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5824,13 +5827,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5881,7 +5884,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5916,10 +5919,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5948,7 +5951,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -6001,7 +6004,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -6036,10 +6039,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6047,13 +6050,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6062,19 +6065,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -6123,7 +6126,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6144,10 +6147,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6158,10 +6161,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6184,13 +6187,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6241,7 +6244,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6276,10 +6279,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6308,7 +6311,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6361,7 +6364,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6396,10 +6399,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6407,13 +6410,13 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6425,23 +6428,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6483,7 +6486,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6504,10 +6507,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6518,10 +6521,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6544,16 +6547,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6603,7 +6606,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6624,10 +6627,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6638,10 +6641,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6649,13 +6652,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -6667,23 +6670,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6725,7 +6728,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6746,10 +6749,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6760,10 +6763,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6786,19 +6789,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6847,7 +6850,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6868,10 +6871,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6882,10 +6885,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6908,19 +6911,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6969,7 +6972,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6990,10 +6993,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -7004,10 +7007,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7030,19 +7033,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7091,7 +7094,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -7112,10 +7115,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -7126,13 +7129,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7236,13 +7239,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7250,10 +7253,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7276,13 +7279,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7333,7 +7336,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7368,10 +7371,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7400,7 +7403,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7453,7 +7456,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7488,10 +7491,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7499,13 +7502,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7514,19 +7517,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7575,7 +7578,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7596,10 +7599,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7610,10 +7613,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7636,13 +7639,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7693,7 +7696,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7728,10 +7731,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7760,7 +7763,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7813,7 +7816,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7848,10 +7851,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7859,13 +7862,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -7877,23 +7880,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7935,7 +7938,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7956,10 +7959,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7970,10 +7973,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7996,16 +7999,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -8055,7 +8058,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8076,10 +8079,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8090,10 +8093,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8101,13 +8104,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8119,23 +8122,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8177,7 +8180,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8198,10 +8201,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8212,10 +8215,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8238,19 +8241,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8299,7 +8302,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8320,10 +8323,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8334,10 +8337,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8360,19 +8363,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8421,7 +8424,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8442,10 +8445,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8456,10 +8459,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8482,19 +8485,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8543,7 +8546,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8564,10 +8567,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8578,13 +8581,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8688,13 +8691,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8702,10 +8705,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8728,13 +8731,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8785,7 +8788,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8820,10 +8823,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8852,7 +8855,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8905,7 +8908,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8940,10 +8943,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8951,13 +8954,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -8966,19 +8969,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -9027,7 +9030,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9048,10 +9051,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9062,10 +9065,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9088,13 +9091,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9145,7 +9148,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9180,10 +9183,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9212,7 +9215,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9265,7 +9268,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9300,10 +9303,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9311,13 +9314,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9329,23 +9332,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9387,7 +9390,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9408,10 +9411,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9422,10 +9425,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9448,16 +9451,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9507,7 +9510,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9528,10 +9531,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9542,10 +9545,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9553,13 +9556,13 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
@@ -9571,23 +9574,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9629,7 +9632,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9650,10 +9653,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9664,10 +9667,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9690,19 +9693,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9751,7 +9754,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9772,10 +9775,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9786,10 +9789,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9812,19 +9815,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9873,7 +9876,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9894,10 +9897,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9908,10 +9911,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9934,19 +9937,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9995,7 +9998,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10016,10 +10019,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -10030,14 +10033,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -10059,16 +10062,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -10093,13 +10096,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10117,7 +10120,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>92</v>
@@ -10132,30 +10135,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10178,13 +10181,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10235,7 +10238,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10270,10 +10273,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10302,7 +10305,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10355,7 +10358,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10390,10 +10393,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10416,19 +10419,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10477,7 +10480,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10498,10 +10501,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10512,10 +10515,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10538,13 +10541,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10595,7 +10598,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10630,10 +10633,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10662,7 +10665,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10715,7 +10718,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10750,10 +10753,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10779,23 +10782,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10837,7 +10840,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10858,10 +10861,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10872,10 +10875,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10898,16 +10901,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10957,7 +10960,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10978,10 +10981,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10992,10 +10995,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11021,23 +11024,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -11079,7 +11082,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11100,10 +11103,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11114,10 +11117,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11140,19 +11143,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11201,7 +11204,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11222,10 +11225,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11236,10 +11239,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11262,19 +11265,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11323,7 +11326,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11344,10 +11347,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11358,10 +11361,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11384,19 +11387,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11406,7 +11409,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>82</v>
@@ -11445,7 +11448,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11466,10 +11469,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11480,10 +11483,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11506,19 +11509,19 @@
         <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11567,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11582,19 +11585,19 @@
         <v>170</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11602,10 +11605,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11628,16 +11631,16 @@
         <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11687,7 +11690,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11708,13 +11711,13 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -11722,14 +11725,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11748,19 +11751,19 @@
         <v>93</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11809,7 +11812,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11824,19 +11827,19 @@
         <v>170</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>82</v>
@@ -11844,14 +11847,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11870,19 +11873,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11931,7 +11934,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11946,19 +11949,19 @@
         <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>82</v>
@@ -11966,10 +11969,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11992,16 +11995,16 @@
         <v>93</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -12051,7 +12054,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12072,13 +12075,13 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>82</v>
@@ -12086,10 +12089,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12112,19 +12115,19 @@
         <v>93</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -12173,7 +12176,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12188,19 +12191,19 @@
         <v>170</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>82</v>
@@ -12208,10 +12211,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12234,19 +12237,19 @@
         <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -12283,7 +12286,7 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
@@ -12293,7 +12296,7 @@
         <v>146</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12302,7 +12305,7 @@
         <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>105</v>
@@ -12311,30 +12314,30 @@
         <v>82</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>82</v>
@@ -12356,19 +12359,19 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12417,7 +12420,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12426,7 +12429,7 @@
         <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>82</v>
@@ -12435,27 +12438,27 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12478,13 +12481,13 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12535,7 +12538,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12570,10 +12573,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12602,7 +12605,7 @@
         <v>141</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>143</v>
@@ -12655,7 +12658,7 @@
         <v>146</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12690,10 +12693,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12716,19 +12719,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12777,7 +12780,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12798,10 +12801,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12812,10 +12815,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12841,22 +12844,22 @@
         <v>115</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q87" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>82</v>
@@ -12880,10 +12883,10 @@
         <v>188</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12901,7 +12904,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12922,10 +12925,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12936,10 +12939,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12962,19 +12965,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -13023,7 +13026,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13044,10 +13047,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -13058,10 +13061,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13087,23 +13090,23 @@
         <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>82</v>
@@ -13145,7 +13148,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13154,7 +13157,7 @@
         <v>92</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>105</v>
@@ -13166,10 +13169,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -13180,10 +13183,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13209,16 +13212,16 @@
         <v>115</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -13246,10 +13249,10 @@
         <v>188</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13267,7 +13270,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13288,10 +13291,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13302,10 +13305,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13331,16 +13334,16 @@
         <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13365,13 +13368,13 @@
         <v>82</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>82</v>
@@ -13389,7 +13392,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13398,7 +13401,7 @@
         <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>105</v>
@@ -13413,7 +13416,7 @@
         <v>106</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13424,14 +13427,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13453,16 +13456,16 @@
         <v>198</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13487,13 +13490,13 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
@@ -13511,7 +13514,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13529,27 +13532,27 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13572,19 +13575,19 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13633,7 +13636,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13654,10 +13657,10 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>82</v>
@@ -13668,10 +13671,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13697,13 +13700,13 @@
         <v>198</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13729,13 +13732,13 @@
         <v>82</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>82</v>
@@ -13753,7 +13756,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13771,27 +13774,27 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13817,16 +13820,16 @@
         <v>198</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13851,13 +13854,13 @@
         <v>82</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>82</v>
@@ -13875,7 +13878,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13896,10 +13899,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13910,10 +13913,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13936,16 +13939,16 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13995,7 +13998,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -14013,27 +14016,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14056,16 +14059,16 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14115,7 +14118,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14133,27 +14136,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14176,19 +14179,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14237,7 +14240,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14249,7 +14252,7 @@
         <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
@@ -14258,10 +14261,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14272,10 +14275,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14298,13 +14301,13 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14355,7 +14358,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14390,10 +14393,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14422,7 +14425,7 @@
         <v>141</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>143</v>
@@ -14475,7 +14478,7 @@
         <v>146</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14510,14 +14513,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14539,10 +14542,10 @@
         <v>140</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>143</v>
@@ -14597,7 +14600,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14632,10 +14635,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14658,16 +14661,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14717,7 +14720,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14726,10 +14729,10 @@
         <v>92</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
@@ -14738,10 +14741,10 @@
         <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14752,10 +14755,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14778,16 +14781,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14837,7 +14840,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14846,10 +14849,10 @@
         <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14858,10 +14861,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14872,10 +14875,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14901,16 +14904,16 @@
         <v>198</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
@@ -14938,10 +14941,10 @@
         <v>119</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>82</v>
@@ -14959,7 +14962,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14977,13 +14980,13 @@
         <v>82</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -14994,10 +14997,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15023,16 +15026,16 @@
         <v>198</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -15057,13 +15060,13 @@
         <v>82</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>82</v>
@@ -15081,7 +15084,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15099,13 +15102,13 @@
         <v>82</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15116,10 +15119,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15142,19 +15145,19 @@
         <v>82</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15203,7 +15206,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15215,7 +15218,7 @@
         <v>104</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>82</v>
@@ -15224,10 +15227,10 @@
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15238,10 +15241,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15264,16 +15267,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15323,7 +15326,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15344,10 +15347,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15358,10 +15361,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15384,16 +15387,16 @@
         <v>93</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15443,7 +15446,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15464,10 +15467,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15478,10 +15481,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15504,16 +15507,16 @@
         <v>93</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15563,7 +15566,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15584,10 +15587,10 @@
         <v>82</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15598,10 +15601,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15624,19 +15627,19 @@
         <v>93</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15685,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15706,10 +15709,10 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15720,10 +15723,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15746,13 +15749,13 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15803,7 +15806,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15838,10 +15841,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15870,7 +15873,7 @@
         <v>141</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>143</v>
@@ -15923,7 +15926,7 @@
         <v>146</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15958,14 +15961,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15987,10 +15990,10 @@
         <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>143</v>
@@ -16045,7 +16048,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16080,10 +16083,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16109,16 +16112,16 @@
         <v>198</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -16143,13 +16146,13 @@
         <v>82</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>82</v>
@@ -16167,7 +16170,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>92</v>
@@ -16185,16 +16188,16 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -16202,10 +16205,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16228,19 +16231,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16289,7 +16292,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16307,27 +16310,27 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16353,16 +16356,16 @@
         <v>198</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -16387,13 +16390,13 @@
         <v>82</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Z116" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA116" t="s" s="2">
         <v>82</v>
@@ -16411,7 +16414,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16420,7 +16423,7 @@
         <v>92</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -16435,7 +16438,7 @@
         <v>106</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>82</v>
@@ -16446,14 +16449,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16475,16 +16478,16 @@
         <v>198</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16509,13 +16512,13 @@
         <v>82</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>82</v>
@@ -16533,7 +16536,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16551,27 +16554,27 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16597,16 +16600,16 @@
         <v>83</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -16655,7 +16658,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16676,10 +16679,10 @@
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dieses CDE enthält den Messparameter 'Erytrhozyten in Blut</t>
+    <t>Dieses CDE enthält den Messparameter 'Erytrhozyten [Anzahl/Volumen] in Blut</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-red-blood-cell-measurement</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4604,7 +4604,7 @@
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4964,7 +4964,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -5206,7 +5206,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -6056,7 +6056,7 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>82</v>
@@ -6416,7 +6416,7 @@
         <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>82</v>
@@ -6658,7 +6658,7 @@
         <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
@@ -7508,7 +7508,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>82</v>
@@ -7868,7 +7868,7 @@
         <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>82</v>
@@ -8110,7 +8110,7 @@
         <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>82</v>
@@ -8960,7 +8960,7 @@
         <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>82</v>
@@ -9320,7 +9320,7 @@
         <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>82</v>
@@ -9562,7 +9562,7 @@
         <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
+++ b/output/StructureDefinition-cde-erythrocytes-in-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
